--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Subject2-LevelDeisgn&amp;Art\Level-Design-Assingment (Zombie Proj)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613381CB-ECFF-435E-80A0-F891C54047ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910BE0D-8FFF-4846-A0B5-A21DAD536355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Purpose</t>
   </si>
   <si>
     <t>Appearance</t>
-  </si>
-  <si>
-    <t>Poly Count</t>
   </si>
   <si>
     <t>Texture Resolution</t>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>70cm x 16cm x 22cm</t>
+  </si>
+  <si>
+    <t>70 Polygons</t>
+  </si>
+  <si>
+    <t>Poly Count (Half - Tri's)</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -661,157 +664,159 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910BE0D-8FFF-4846-A0B5-A21DAD536355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713772C4-DF90-4E6E-A10C-ED24F7B8A531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Purpose</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Dimension (X, Y, Z)</t>
-  </si>
-  <si>
-    <t>50cm(3)</t>
   </si>
   <si>
     <t>2m x 1m x 10cm</t>
@@ -158,10 +155,10 @@
     <t>70cm x 16cm x 22cm</t>
   </si>
   <si>
-    <t>70 Polygons</t>
-  </si>
-  <si>
     <t>Poly Count (Half - Tri's)</t>
+  </si>
+  <si>
+    <t>30cm x 30cm x 65cm</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -675,7 +672,7 @@
     </row>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -688,12 +685,12 @@
         <v>17</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -706,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,14 +770,12 @@
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713772C4-DF90-4E6E-A10C-ED24F7B8A531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20748B-B67A-40E0-8411-270C92DFA826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-60" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,13 +152,13 @@
     </r>
   </si>
   <si>
-    <t>70cm x 16cm x 22cm</t>
-  </si>
-  <si>
     <t>Poly Count (Half - Tri's)</t>
   </si>
   <si>
     <t>30cm x 30cm x 65cm</t>
+  </si>
+  <si>
+    <t>70cm x 22cm x 16cm</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF20748B-B67A-40E0-8411-270C92DFA826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBBAEDF-D6A4-4363-9E34-6C9ED24A974E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <t>30cm x 30cm x 65cm</t>
   </si>
   <si>
-    <t>70cm x 22cm x 16cm</t>
+    <t>1m x 22cm x 16cm</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBBAEDF-D6A4-4363-9E34-6C9ED24A974E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75612C-F1F0-438F-9CFB-07B02140E4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Purpose</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>1m x 22cm x 16cm</t>
+  </si>
+  <si>
+    <t>300 Polygons</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,9 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
       </c>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD75612C-F1F0-438F-9CFB-07B02140E4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FEBF49-F701-4353-8DEA-08FFE4986A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Purpose</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wooden Crate </t>
-  </si>
-  <si>
-    <t>Map decoration, blocks of certain areas.</t>
   </si>
   <si>
     <t>Map decoration</t>
@@ -161,7 +158,16 @@
     <t>1m x 22cm x 16cm</t>
   </si>
   <si>
-    <t>300 Polygons</t>
+    <t>164 Polygons</t>
+  </si>
+  <si>
+    <t>78 Polygons</t>
+  </si>
+  <si>
+    <t>102 Polygons</t>
+  </si>
+  <si>
+    <t>Map decoration + barrier</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,18 +670,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -684,18 +690,18 @@
         <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -703,12 +709,14 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,10 +731,10 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,17 +742,17 @@
         <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,17 +760,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,53 +778,55 @@
         <v>13</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FEBF49-F701-4353-8DEA-08FFE4986A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75855D14-16E5-4166-9867-601643D7F03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Purpose</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Map decoration + barrier</t>
+  </si>
+  <si>
+    <t>64 Polygons</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,9 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>16</v>
       </c>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75855D14-16E5-4166-9867-601643D7F03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3B281-75BC-43AC-A3CA-2569BA86244C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,16 +72,10 @@
     <t>Map decoration</t>
   </si>
   <si>
-    <t>Worn and dented metal bars, making a net of pipes.</t>
-  </si>
-  <si>
     <t>512 x 512</t>
   </si>
   <si>
     <t>Old weathered wooden crate.</t>
-  </si>
-  <si>
-    <t>Rusted and broken metal railings, modular.</t>
   </si>
   <si>
     <t>Trap Vent</t>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>64 Polygons</t>
+  </si>
+  <si>
+    <t>Worn metal bars, making a net of pipes.</t>
+  </si>
+  <si>
+    <t>Old metal railings, modular.</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,18 +673,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -693,18 +693,18 @@
         <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,17 +747,17 @@
         <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,17 +765,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,52 +786,52 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3B281-75BC-43AC-A3CA-2569BA86244C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57827B-152F-40BB-98C4-272E0E3650EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Purpose</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Old metal railings, modular.</t>
+  </si>
+  <si>
+    <t>140 Polygons</t>
+  </si>
+  <si>
+    <t>Metal Tunnel</t>
+  </si>
+  <si>
+    <t>Interior of tunnel between gates.</t>
+  </si>
+  <si>
+    <t>Old metal piping.</t>
+  </si>
+  <si>
+    <t>3m x 3m x 12m</t>
   </si>
 </sst>
 </file>
@@ -650,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +767,9 @@
       <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
@@ -762,75 +779,93 @@
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Documentation_Folder/Asset-List_Daniel.S.xlsx
+++ b/Documentation_Folder/Asset-List_Daniel.S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s192126\Documents\RepoFolders\Zombie_Proj\Documentation_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57827B-152F-40BB-98C4-272E0E3650EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240EDE24-A966-439E-950D-4121A8F4A230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Purpose</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>3m x 3m x 12m</t>
+  </si>
+  <si>
+    <t>40 Polygons</t>
+  </si>
+  <si>
+    <t>??? Polygons</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +793,9 @@
       <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
@@ -805,7 +813,9 @@
       <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -843,7 +853,9 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
@@ -861,7 +873,9 @@
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
